--- a/target/test-classes/contactus.xlsx
+++ b/target/test-classes/contactus.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhzzz/Desktop/Automation_Project/project/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhzzz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A736DF5A-11D0-6946-9B6A-725118DE2A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C878BA8-5A66-8E40-B490-41763A549EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17240" xr2:uid="{D3447FC7-812B-D04A-A27C-3D197B6ABD97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{D3447FC7-812B-D04A-A27C-3D197B6ABD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidNames" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidNames" sheetId="3" r:id="rId3"/>
+    <sheet name="ValidEmails" sheetId="4" r:id="rId4"/>
+    <sheet name="InvalidEmails" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -95,26 +99,74 @@
     <t>Order status</t>
   </si>
   <si>
-    <t>Retun request</t>
-  </si>
-  <si>
     <t>Refund status</t>
   </si>
   <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation </t>
+    <t>Return request</t>
+  </si>
+  <si>
+    <t>Siddehh Cgi</t>
+  </si>
+  <si>
+    <t>Vivek.Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   _</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>gourpA7@domain.com</t>
+  </si>
+  <si>
+    <t>cgi@google.com</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>userdomain</t>
+  </si>
+  <si>
+    <t>usercom</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>++++++</t>
+  </si>
+  <si>
+    <t>a7@gmail.com</t>
+  </si>
+  <si>
+    <t>a7@yahoo.com</t>
+  </si>
+  <si>
+    <t>cgi@cgi.com</t>
+  </si>
+  <si>
+    <t>a7@cgi.com</t>
+  </si>
+  <si>
+    <t>A7TEAM@GAMAIL.COM</t>
+  </si>
+  <si>
+    <t>CGIDOTCOM</t>
+  </si>
+  <si>
+    <t>cgidotcom</t>
+  </si>
+  <si>
+    <t>a7atcgidotcom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +188,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,14 +211,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,129 +573,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CEA34D-575C-8D4B-B652-8045816D5EFB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CD8284-1611-3746-A889-EDF86DEE732D}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E3D34C-BE74-4942-A184-F574171D0294}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>98400021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EECFFD-5CD6-604A-967C-B695715A017A}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D055DE9E-586F-294D-AB73-B7AD15F8A9FF}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{4D8B987A-4DF9-1242-9DDD-B89F164A830B}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{9532F4FA-1B96-2D47-8CEE-FC042DEC972A}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{FC50D959-ADB7-164C-94B5-722FA0987264}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{3CD443DD-D20D-6348-83F6-5F1D25E1D77F}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{920084BC-386B-9B4B-9EA2-B5902B03595A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80190C75-62A2-BB45-8692-846F37594CAB}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>870022</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C5E1EF32-28C2-EC43-BFFD-29002C76C69F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D165E548-BA33-AD43-8123-E409F7675D66}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{36D5CF7D-F3EE-7646-B1B8-289BD69687C9}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00E8FEF1-404E-0E4A-BC2C-FBC4496543DF}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{D8426C46-E21F-CC4C-A609-FCD3E15635CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>